--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2996153.297843351</v>
+        <v>2993901.218132145</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329252</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>68.74868616823294</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666636</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>137.2376200605253</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278468</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>205.1838575377005</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>67.37512149318727</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065904</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>51.06561173382029</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395859</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.733841663484</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766848</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,10 +1664,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>180.0179497934433</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428207</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>103.8784673763407</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486851</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919557</v>
       </c>
     </row>
     <row r="3">
@@ -4398,13 +4398,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,7 +4425,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.678443125553</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.715926185141</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>937.4502275783905</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>551.6619749801462</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7164742309427</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189674</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,28 +4632,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,13 +4665,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1720.03812633324</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1465.353638127353</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1175.936468090393</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1175.936468090393</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1329.547110979146</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324644</v>
+        <v>971.2814123723956</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4865620565176</v>
+        <v>585.4931597741513</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>578.5476590249478</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.1808689801002</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1875.713122094735</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1621.028633888848</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1331.611463851887</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1103.62191295387</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.8293338103399</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797194</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703773</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969296</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400711</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908946</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908944</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908943</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908942</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.528494205774</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,25 +5294,25 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516147</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>408.9258559154851</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6920,34 +6920,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194321</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>72.11969353038472</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>44.73700564187166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.931091227</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="16">
@@ -26317,28 +26317,28 @@
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.609736506</v>
-      </c>
       <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
@@ -26347,13 +26347,13 @@
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365061</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>5.953343565250116e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.202397277</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>5.953343565250116e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.953343565250116e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815723</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680561</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680575</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680572</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829757.1928925022</v>
+        <v>-829757.1928925016</v>
       </c>
       <c r="C6" t="n">
-        <v>498987.5528350903</v>
+        <v>498987.55283509</v>
       </c>
       <c r="D6" t="n">
-        <v>498987.5528350908</v>
+        <v>498987.5528350906</v>
       </c>
       <c r="E6" t="n">
-        <v>247762.6418884372</v>
+        <v>247727.9039630016</v>
       </c>
       <c r="F6" t="n">
-        <v>573175.1036957926</v>
+        <v>573140.3657703574</v>
       </c>
       <c r="G6" t="n">
-        <v>573175.1036957926</v>
+        <v>573140.3657703574</v>
       </c>
       <c r="H6" t="n">
-        <v>573175.1036957934</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="I6" t="n">
-        <v>573175.1036957928</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="J6" t="n">
-        <v>355643.9012985157</v>
+        <v>355609.1633730798</v>
       </c>
       <c r="K6" t="n">
-        <v>573175.1036957926</v>
+        <v>573140.3657703573</v>
       </c>
       <c r="L6" t="n">
-        <v>573175.1036957926</v>
+        <v>573140.365770357</v>
       </c>
       <c r="M6" t="n">
-        <v>488120.0757602807</v>
+        <v>488085.3378348451</v>
       </c>
       <c r="N6" t="n">
-        <v>573175.1036957928</v>
+        <v>573140.365770357</v>
       </c>
       <c r="O6" t="n">
-        <v>573175.103695793</v>
+        <v>573140.3657703575</v>
       </c>
       <c r="P6" t="n">
-        <v>573175.1036957926</v>
+        <v>573140.3657703573</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.441679456562646e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.441679456562646e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.441679456562646e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,40 +26960,40 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483761</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022918</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.441679456562646e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.441679456562646e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393365</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.2566436803255</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181444</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068142</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>273.6841055929282</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624354</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>81.02798066791235</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>314.5552485790745</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468631</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>235.1462264717926</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700509</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338189</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192539</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32397,31 +32397,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32546,25 +32546,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394477</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113551</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316718</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359206</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
